--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2559.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2559.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.093585280125323</v>
+        <v>1.689860582351685</v>
       </c>
       <c r="B1">
-        <v>1.727130923611634</v>
+        <v>1.569661736488342</v>
       </c>
       <c r="C1">
-        <v>3.763105510606562</v>
+        <v>7.306740760803223</v>
       </c>
       <c r="D1">
-        <v>2.103771151669852</v>
+        <v>1.613357067108154</v>
       </c>
       <c r="E1">
-        <v>0.778492592829652</v>
+        <v>0.4718554615974426</v>
       </c>
     </row>
   </sheetData>
